--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64198.67994213568</v>
+        <v>12728674.95971445</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64198.67994213568</v>
+        <v>12728674.95971445</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24339.39745992405</v>
+        <v>3093416.222754287</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24339.39745992405</v>
+        <v>3093416.222754287</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495468803.21456</v>
+        <v>59017089.16297051</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12421.62784895812</v>
+        <v>1329918.640486077</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23931.01376398455</v>
+        <v>2536665.262526959</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35402.96101825347</v>
+        <v>3737915.927186582</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47604.84615099586</v>
+        <v>4828966.238062354</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59107.51244548876</v>
+        <v>6025019.88178694</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70610.17873998168</v>
+        <v>7221073.525511521</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82231.11745764401</v>
+        <v>8462865.747108523</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93782.20890257906</v>
+        <v>9690758.361432798</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106037.7944818669</v>
+        <v>10774091.59403948</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117454.1966324943</v>
+        <v>11975953.93966602</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128756.4393010378</v>
+        <v>13200586.51803208</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140058.6819695815</v>
+        <v>14425219.09639812</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151360.9246381252</v>
+        <v>15649851.67476417</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163562.8097708676</v>
+        <v>16740901.98563995</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178965.7698256388</v>
+        <v>17343440.86792899</v>
       </c>
     </row>
   </sheetData>
@@ -27037,7 +27037,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -27052,13 +27052,13 @@
         <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>228</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>98</v>
